--- a/IA_CCBS_BANK_SIDE/Position/Exposures_DownloadAccountDetails.xlsx
+++ b/IA_CCBS_BANK_SIDE/Position/Exposures_DownloadAccountDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aafent\Desktop\IA\Interfaces\IA_CCBS_BANK_SIDE\Position\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aafent\Desktop\IA\InterfacesGitHub\IA_CCBS_BANK_SIDE\Position\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA125C37-64F6-41EE-8B75-5FA4188A2F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B8392-8A50-4932-A079-E0D058B9DE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7800" windowWidth="29040" windowHeight="16440" tabRatio="711" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="885" windowWidth="29040" windowHeight="16440" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="175">
   <si>
     <t>Data Type</t>
   </si>
@@ -492,9 +492,6 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>May 2023</t>
-  </si>
-  <si>
     <t>Invocation</t>
   </si>
   <si>
@@ -532,6 +529,24 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>Entity Value ( Contract No, Deal No, Reference ID, Account, etc)</t>
+  </si>
+  <si>
+    <t>Entity-Account Type</t>
+  </si>
+  <si>
+    <t>Entity-Account Check Digit</t>
+  </si>
+  <si>
+    <t>Entity-Account Number</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>May 2024</t>
   </si>
 </sst>
 </file>
@@ -651,9 +666,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -664,6 +676,9 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -731,20 +746,20 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4DFBFA6A-FBC1-405E-B1D5-71B07074328D}" name="Seq." dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{AAFAC3D8-BBAC-491C-AB0B-3828EDFDBF95}" name="Description" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{B34762A6-8608-4077-824F-3F6A0A1C3D68}" name="Model" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{12D0BD38-62D5-403A-ADC2-4D50DD3FADB5}" name="iApply" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{AECDAA1A-8747-42B2-AE53-D4194854B96C}" name="Data Type" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{78E712C1-ED6C-4465-AEAC-2A35831646FE}" name="Entity" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{377A9188-E448-4B76-A76C-CC61FCD9269A}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{B34762A6-8608-4077-824F-3F6A0A1C3D68}" name="Model" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{12D0BD38-62D5-403A-ADC2-4D50DD3FADB5}" name="iApply" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{AECDAA1A-8747-42B2-AE53-D4194854B96C}" name="Data Type" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{78E712C1-ED6C-4465-AEAC-2A35831646FE}" name="Entity" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{377A9188-E448-4B76-A76C-CC61FCD9269A}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -782,9 +797,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,26 +832,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -869,26 +867,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1064,24 +1045,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B7747D-384F-4A6C-BFFF-7EF08FD163CB}">
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>149</v>
       </c>
@@ -1089,7 +1068,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>151</v>
       </c>
@@ -1097,7 +1076,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>153</v>
       </c>
@@ -1105,63 +1084,63 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
     </row>
@@ -1174,44 +1153,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
@@ -1220,12 +1197,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -1233,19 +1210,25 @@
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1261,33 +1244,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="36" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="24" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -1296,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1319,12 +1300,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -1336,12 +1317,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -1353,12 +1334,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -1370,7 +1351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1387,7 +1368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1404,7 +1385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1421,7 +1402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1438,7 +1419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1458,7 +1439,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -1478,7 +1459,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -1498,7 +1479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -1518,7 +1499,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -1538,7 +1519,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -1558,7 +1539,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -1578,7 +1559,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -1598,7 +1579,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>17</v>
       </c>
@@ -1618,7 +1599,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -1638,7 +1619,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -1658,7 +1639,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>20</v>
       </c>
@@ -1678,7 +1659,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>21</v>
       </c>
@@ -1698,7 +1679,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>22</v>
       </c>
@@ -1718,7 +1699,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>23</v>
       </c>
@@ -1738,7 +1719,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>24</v>
       </c>
@@ -1758,7 +1739,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>25</v>
       </c>
@@ -1778,7 +1759,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>26</v>
       </c>
@@ -1798,7 +1779,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>27</v>
       </c>
@@ -1818,7 +1799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>28</v>
       </c>
@@ -1838,7 +1819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>29</v>
       </c>
@@ -1858,7 +1839,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>30</v>
       </c>
@@ -1878,7 +1859,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>31</v>
       </c>
@@ -1898,7 +1879,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>32</v>
       </c>
@@ -1918,7 +1899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>33</v>
       </c>
@@ -1938,7 +1919,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>34</v>
       </c>
@@ -1958,7 +1939,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>35</v>
       </c>
@@ -1978,7 +1959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <v>36</v>
       </c>
@@ -1998,7 +1979,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <v>37</v>
       </c>
@@ -2018,7 +1999,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <v>38</v>
       </c>
@@ -2038,7 +2019,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>39</v>
       </c>
@@ -2058,7 +2039,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>40</v>
       </c>
@@ -2078,7 +2059,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>41</v>
       </c>
@@ -2098,7 +2079,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <v>42</v>
       </c>
@@ -2118,7 +2099,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <v>43</v>
       </c>
@@ -2138,7 +2119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
         <v>44</v>
       </c>
@@ -2158,7 +2139,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -2178,7 +2159,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <v>46</v>
       </c>
@@ -2198,7 +2179,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <v>47</v>
       </c>
@@ -2218,7 +2199,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>48</v>
       </c>
@@ -2238,7 +2219,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>49</v>
       </c>
@@ -2258,7 +2239,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>50</v>
       </c>
@@ -2278,7 +2259,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="4">
         <v>51</v>
       </c>
@@ -2298,7 +2279,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
         <v>52</v>
       </c>
@@ -2318,7 +2299,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
         <v>53</v>
       </c>
@@ -2338,7 +2319,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <v>54</v>
       </c>
@@ -2358,7 +2339,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <v>55</v>
       </c>
@@ -2375,7 +2356,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <v>56</v>
       </c>
@@ -2392,7 +2373,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <v>57</v>
       </c>
@@ -2409,7 +2390,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
         <v>58</v>
       </c>
@@ -2429,7 +2410,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
         <v>59</v>
       </c>
@@ -2449,7 +2430,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
         <v>60</v>
       </c>
@@ -2469,7 +2450,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="4">
         <v>61</v>
       </c>
@@ -2486,7 +2467,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
         <v>62</v>
       </c>
@@ -2503,7 +2484,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>63</v>
       </c>
@@ -2520,7 +2501,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>64</v>
       </c>
@@ -2537,7 +2518,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <v>65</v>
       </c>
@@ -2554,7 +2535,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <v>66</v>
       </c>
@@ -2571,7 +2552,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <v>67</v>
       </c>
@@ -2588,7 +2569,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <v>68</v>
       </c>
@@ -2605,7 +2586,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <v>69</v>
       </c>
@@ -2622,7 +2603,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <v>70</v>
       </c>
@@ -2639,7 +2620,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -2656,7 +2637,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <v>72</v>
       </c>
@@ -2673,7 +2654,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <v>73</v>
       </c>
@@ -2690,7 +2671,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <v>74</v>
       </c>
@@ -2707,7 +2688,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="4">
         <v>75</v>
       </c>
